--- a/Worked Hours/task.xlsx
+++ b/Worked Hours/task.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SGIC\SGIC-JAVA\Worked Hours\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCF89592-44E2-4342-8813-E92187F3E198}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D15B3E-3E8A-4F68-9304-BE57726D9FFF}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" xr2:uid="{8F8CFD86-3373-43F8-A473-92A2A31FB44C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>Task</t>
   </si>
@@ -42,32 +42,41 @@
     <t>Due Date</t>
   </si>
   <si>
-    <t>Student Detail Crud Aplication</t>
-  </si>
-  <si>
-    <t>3 hr</t>
-  </si>
-  <si>
     <t>Completed</t>
   </si>
   <si>
-    <t>Maven Scope</t>
-  </si>
-  <si>
-    <t>Spring vs Spring Boot</t>
-  </si>
-  <si>
     <t>1 hr</t>
   </si>
   <si>
     <t>1hr</t>
+  </si>
+  <si>
+    <t>swagger-ui</t>
+  </si>
+  <si>
+    <t>Log4j</t>
+  </si>
+  <si>
+    <t>inprogress</t>
+  </si>
+  <si>
+    <t>Using PostgreSQL  and Oracle Database</t>
+  </si>
+  <si>
+    <t>PostgreSQL Database</t>
+  </si>
+  <si>
+    <t>Oracle  Database</t>
+  </si>
+  <si>
+    <t>40 min</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,6 +87,21 @@
     <font>
       <sz val="11"/>
       <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -103,10 +127,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,50 +450,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D11259D7-227C-43A1-A8D0-2B56E113656B}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28" customWidth="1"/>
+    <col min="1" max="1" width="36.140625" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="1">
-        <v>44661</v>
+        <v>44691</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -472,39 +501,65 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1">
+        <v>44691</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1">
-        <v>44661</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" t="s">
         <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="A4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1">
         <v>44691</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1">
+        <v>44691</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:E4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Worked Hours/task.xlsx
+++ b/Worked Hours/task.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SGIC\SGIC-JAVA\Worked Hours\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\shan\Kirushan\SGIC-JAVA\Worked Hours\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCF89592-44E2-4342-8813-E92187F3E198}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{716095E0-3A48-45AD-B48C-2CDAA588594E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" xr2:uid="{8F8CFD86-3373-43F8-A473-92A2A31FB44C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{8F8CFD86-3373-43F8-A473-92A2A31FB44C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>Task</t>
   </si>
@@ -61,13 +61,22 @@
   </si>
   <si>
     <t>1hr</t>
+  </si>
+  <si>
+    <t>Entitiy Mapping</t>
+  </si>
+  <si>
+    <t>2hr</t>
+  </si>
+  <si>
+    <t>Not Started</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,6 +87,13 @@
     <font>
       <sz val="11"/>
       <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -103,10 +119,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D11259D7-227C-43A1-A8D0-2B56E113656B}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -504,6 +521,20 @@
         <v>10</v>
       </c>
     </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1">
+        <v>44691</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
